--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,7 +390,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
